--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arvind\Desktop\DTU 1st year\DSA-Skillup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9B3748-011A-46C9-852E-1C4C01ECF16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0CA944-6F7C-4D67-BA3C-993809C0CF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1860,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A468" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2423,7 +2423,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21">
@@ -2434,7 +2434,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="21">
@@ -2445,7 +2445,7 @@
         <v>56</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="21">
@@ -2467,7 +2467,7 @@
         <v>58</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="21">
